--- a/public/Personal Information Template.xlsx
+++ b/public/Personal Information Template.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Capstone\Doc\Assigned Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\PortalVLU\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2932526A-A1A2-4A9D-BF7D-1B97A3116F5C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="thông tin nhân viên" sheetId="1" r:id="rId1"/>
@@ -20,17 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
   <si>
     <t>Mã NV</t>
   </si>
@@ -107,9 +103,6 @@
     <t>Nam</t>
   </si>
   <si>
-    <t>caigivaytri@gmail.com</t>
-  </si>
-  <si>
     <t>Công Nhân</t>
   </si>
   <si>
@@ -135,12 +128,18 @@
   </si>
   <si>
     <t>Khối Nghành II</t>
+  </si>
+  <si>
+    <t>T155445</t>
+  </si>
+  <si>
+    <t>caigivayta@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -186,8 +185,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Siêu kết nối" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -498,11 +497,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,7 +582,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
@@ -607,7 +606,7 @@
         <v>21</v>
       </c>
       <c r="I2">
-        <v>352363654</v>
+        <v>352363651</v>
       </c>
       <c r="J2" s="1">
         <v>42104</v>
@@ -619,24 +618,24 @@
         <v>1632547854</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="N2" s="1">
         <v>43200</v>
       </c>
       <c r="O2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" t="s">
         <v>26</v>
       </c>
-      <c r="P2" t="s">
-        <v>27</v>
-      </c>
       <c r="Q2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M2" r:id="rId1"/>
+    <hyperlink ref="M2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -644,11 +643,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -678,27 +677,27 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" s="1">
         <v>43200</v>
       </c>
       <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
         <v>29</v>
-      </c>
-      <c r="E2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="1">
         <v>43441</v>
@@ -707,7 +706,7 @@
         <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
